--- a/Datasets/c2022_caba_est_c2_1.xlsx
+++ b/Datasets/c2022_caba_est_c2_1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Carátula" sheetId="4" r:id="rId1"/>
@@ -17,6 +17,8 @@
     <sheet name="Cuadro 2.1" sheetId="2" r:id="rId3"/>
     <sheet name="poblacion" sheetId="5" r:id="rId4"/>
     <sheet name="comuna" sheetId="7" r:id="rId5"/>
+    <sheet name="anual" sheetId="8" r:id="rId6"/>
+    <sheet name="crecimiento" sheetId="9" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -39,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="67">
   <si>
     <t>Censo Nacional de Población, Hogares y Viviendas 2022</t>
   </si>
@@ -327,15 +329,37 @@
   <si>
     <t>COMUNA</t>
   </si>
+  <si>
+    <t>ANIO</t>
+  </si>
+  <si>
+    <t>POBLACION</t>
+  </si>
+  <si>
+    <t>diferencia</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>12 años</t>
+  </si>
+  <si>
+    <t>crecimiento</t>
+  </si>
+  <si>
+    <t>Proyeccion</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="###,###,###,##0"/>
+    <numFmt numFmtId="174" formatCode="0.00000000"/>
   </numFmts>
   <fonts count="21" x14ac:knownFonts="1">
     <font>
@@ -559,7 +583,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
@@ -658,6 +682,9 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1"/>
@@ -1964,10 +1991,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2201,6 +2228,12 @@
         <v>13767.6</v>
       </c>
     </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C17">
+        <f>SUM(C2:C16)</f>
+        <v>3121707</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="285" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -2211,7 +2244,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
@@ -2348,4 +2381,357 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:G17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="13.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <v>2010</v>
+      </c>
+      <c r="C2" s="34">
+        <v>2890151</v>
+      </c>
+      <c r="D2" s="34"/>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>2011</v>
+      </c>
+      <c r="D3" s="34">
+        <f>C2+F3</f>
+        <v>2908772.99433226</v>
+      </c>
+      <c r="E3" s="36">
+        <v>6.4432600000000001E-3</v>
+      </c>
+      <c r="F3">
+        <f>C2*E3</f>
+        <v>18621.994332260001</v>
+      </c>
+      <c r="G3" s="34"/>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>2012</v>
+      </c>
+      <c r="D4" s="34">
+        <f>D3+F4</f>
+        <v>2927514.9750157213</v>
+      </c>
+      <c r="E4" s="36">
+        <f>E3</f>
+        <v>6.4432600000000001E-3</v>
+      </c>
+      <c r="F4">
+        <f>D3*E4</f>
+        <v>18741.980683461279</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>2013</v>
+      </c>
+      <c r="D5" s="34">
+        <f>D4+F5</f>
+        <v>2946377.7151536411</v>
+      </c>
+      <c r="E5" s="36">
+        <f t="shared" ref="E5:E14" si="0">E4</f>
+        <v>6.4432600000000001E-3</v>
+      </c>
+      <c r="F5">
+        <f>D4*E5</f>
+        <v>18862.740137919798</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>2014</v>
+      </c>
+      <c r="D6" s="34">
+        <f>D5+F6</f>
+        <v>2965361.992830582</v>
+      </c>
+      <c r="E6" s="36">
+        <f t="shared" si="0"/>
+        <v>6.4432600000000001E-3</v>
+      </c>
+      <c r="F6">
+        <f>D5*E6</f>
+        <v>18984.277676940848</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>2015</v>
+      </c>
+      <c r="D7" s="34">
+        <f>D6+F7</f>
+        <v>2984468.5911445078</v>
+      </c>
+      <c r="E7" s="36">
+        <f t="shared" si="0"/>
+        <v>6.4432600000000001E-3</v>
+      </c>
+      <c r="F7">
+        <f>D6*E7</f>
+        <v>19106.598313925577</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>2016</v>
+      </c>
+      <c r="D8" s="34">
+        <f>D7+F8</f>
+        <v>3003698.2982390854</v>
+      </c>
+      <c r="E8" s="36">
+        <f t="shared" si="0"/>
+        <v>6.4432600000000001E-3</v>
+      </c>
+      <c r="F8">
+        <f>D7*E8</f>
+        <v>19229.707094577763</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>2017</v>
+      </c>
+      <c r="D9" s="34">
+        <f>D8+F9</f>
+        <v>3023051.9073361973</v>
+      </c>
+      <c r="E9" s="36">
+        <f t="shared" si="0"/>
+        <v>6.4432600000000001E-3</v>
+      </c>
+      <c r="F9">
+        <f>D8*E9</f>
+        <v>19353.60909711197</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>2018</v>
+      </c>
+      <c r="D10" s="34">
+        <f>D9+F10</f>
+        <v>3042530.2167686606</v>
+      </c>
+      <c r="E10" s="36">
+        <f t="shared" si="0"/>
+        <v>6.4432600000000001E-3</v>
+      </c>
+      <c r="F10">
+        <f>D9*E10</f>
+        <v>19478.309432463026</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>2019</v>
+      </c>
+      <c r="D11" s="34">
+        <f>D10+F11</f>
+        <v>3062134.0300131575</v>
+      </c>
+      <c r="E11" s="36">
+        <f t="shared" si="0"/>
+        <v>6.4432600000000001E-3</v>
+      </c>
+      <c r="F11">
+        <f>D10*E11</f>
+        <v>19603.81324449684</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>2020</v>
+      </c>
+      <c r="D12" s="34">
+        <f>D11+F12</f>
+        <v>3081864.1557233799</v>
+      </c>
+      <c r="E12" s="36">
+        <f t="shared" si="0"/>
+        <v>6.4432600000000001E-3</v>
+      </c>
+      <c r="F12">
+        <f>D11*E12</f>
+        <v>19730.125710222579</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>2021</v>
+      </c>
+      <c r="D13" s="34">
+        <f>D12+F13</f>
+        <v>3101721.4077633861</v>
+      </c>
+      <c r="E13" s="36">
+        <f t="shared" si="0"/>
+        <v>6.4432600000000001E-3</v>
+      </c>
+      <c r="F13">
+        <f>D12*E13</f>
+        <v>19857.252040006224</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>2022</v>
+      </c>
+      <c r="C14" s="34">
+        <v>3121707</v>
+      </c>
+      <c r="D14" s="34">
+        <f>D13+F14</f>
+        <v>3121706.6052411716</v>
+      </c>
+      <c r="E14" s="36">
+        <f t="shared" si="0"/>
+        <v>6.4432600000000001E-3</v>
+      </c>
+      <c r="F14">
+        <f>D13*E14</f>
+        <v>19985.197477785518</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>62</v>
+      </c>
+      <c r="E15" s="34">
+        <f>(C14-C2)</f>
+        <v>231556</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>64</v>
+      </c>
+      <c r="C16" t="s">
+        <v>63</v>
+      </c>
+      <c r="E16" s="35">
+        <f>(E15*100)/C14</f>
+        <v>7.4176083790054612</v>
+      </c>
+    </row>
+    <row r="17" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D17" s="34">
+        <f>D14-C14</f>
+        <v>-0.39475882844999433</v>
+      </c>
+      <c r="E17" s="35">
+        <f>E16/11</f>
+        <v>0.67432803445504197</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2016</v>
+      </c>
+      <c r="B2">
+        <v>3003698</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2017</v>
+      </c>
+      <c r="B3">
+        <v>3023052</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2018</v>
+      </c>
+      <c r="B4">
+        <v>3042530</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2019</v>
+      </c>
+      <c r="B5">
+        <v>3062134</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2020</v>
+      </c>
+      <c r="B6">
+        <v>3081864</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2021</v>
+      </c>
+      <c r="B7">
+        <v>3101721</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>